--- a/med/research/files/tracking/deaf_diabetes.xlsx
+++ b/med/research/files/tracking/deaf_diabetes.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbisc\Desktop\REPOs\personal\pbischoff3.github.io\med\research\files\tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18BF7DE5-3DEA-4B7C-AB55-0EBCF2C16535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6003ADBB-3F9F-43D3-B697-D978082D5053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{8DE03785-8A98-4B0F-BB0A-392D4C8E8784}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9960" activeTab="1" xr2:uid="{8DE03785-8A98-4B0F-BB0A-392D4C8E8784}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="deaf - diabetes" sheetId="1" r:id="rId1"/>
+    <sheet name="dcopes" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>Date</t>
   </si>
@@ -402,7 +403,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6B1D46-708F-4AD1-9532-1825134C475E}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -427,14 +430,14 @@
         <v>45134</v>
       </c>
       <c r="C3">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
       <c r="F3">
         <f>SUM(C3:C250)</f>
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -442,7 +445,7 @@
         <v>45148</v>
       </c>
       <c r="C4">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -450,7 +453,7 @@
         <v>45155</v>
       </c>
       <c r="C5">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -458,7 +461,77 @@
         <v>45168</v>
       </c>
       <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84CAE6E-DA6D-4979-B675-154327615841}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>45134</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>2</v>
+      </c>
+      <c r="F3">
+        <f>SUM(C3:C250)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>45148</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>45155</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>45168</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
